--- a/Llamadas Entrantes Sistemas ERIK.xlsx
+++ b/Llamadas Entrantes Sistemas ERIK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\038\Documents\COMPARTIDA SISTEMAS\Publica-Sistemas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41274E8C-DB6F-4A83-AFD7-A8B1C7CDE2E4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7488271E-AD69-458E-8D7C-BAF28479A63E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="20280" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="215">
   <si>
     <t>Prioridad</t>
   </si>
@@ -671,6 +671,9 @@
   </si>
   <si>
     <t>Cambiar de sucursal a un cliente</t>
+  </si>
+  <si>
+    <t>Cancelacion de un pago</t>
   </si>
 </sst>
 </file>
@@ -1309,7 +1312,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A230" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F253" sqref="F253"/>
+      <selection pane="bottomLeft" activeCell="G253" sqref="G253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6817,7 +6820,9 @@
       <c r="F253" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G253" s="38"/>
+      <c r="G253" s="38" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="16"/>

--- a/Llamadas Entrantes Sistemas ERIK.xlsx
+++ b/Llamadas Entrantes Sistemas ERIK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\038\Documents\COMPARTIDA SISTEMAS\Publica-Sistemas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7488271E-AD69-458E-8D7C-BAF28479A63E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AC5BAA34-53CB-45F8-9738-5790FB5D6A5B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="20280" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="215">
   <si>
     <t>Prioridad</t>
   </si>
@@ -1312,7 +1312,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A230" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G253" sqref="G253"/>
+      <selection pane="bottomLeft" activeCell="D254" sqref="D254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6825,12 +6825,24 @@
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A254" s="16"/>
-      <c r="B254" s="16"/>
-      <c r="C254" s="16"/>
-      <c r="D254" s="18"/>
-      <c r="E254" s="35"/>
-      <c r="F254" s="16"/>
+      <c r="A254" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B254" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C254" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="D254" s="18">
+        <v>43313</v>
+      </c>
+      <c r="E254" s="35">
+        <v>0.77638888888888891</v>
+      </c>
+      <c r="F254" s="17" t="s">
+        <v>10</v>
+      </c>
       <c r="G254" s="16"/>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
@@ -13730,7 +13742,7 @@
   </sheetData>
   <autoFilter ref="A1:G237" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Motivo Llamada" sqref="F2:F253" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Motivo Llamada" sqref="F2:F254" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Motivo_llamada</formula1>
     </dataValidation>
   </dataValidations>
